--- a/dags/files_pami/Instalada.xlsx
+++ b/dags/files_pami/Instalada.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clinicossasips-my.sharepoint.com/personal/maristizabal_clinicos_com_co/Documents/GESTIÓN DE TABLEROS/ACTUALIZACION PAMI Y CARTAGENA/INSTALADA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clinicos\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{31ADE914-9DE5-4511-AB20-152EDF16DC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D1E8D78-BCCA-4155-9891-AA6C6F5AA25D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773DE454-3ACC-498F-BC38-B93CB4FD06A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{3655D678-912F-4640-A6FF-27DCF24D6CD0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3655D678-912F-4640-A6FF-27DCF24D6CD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Sede</t>
   </si>
@@ -53,64 +53,7 @@
     <t>Bulevar</t>
   </si>
   <si>
-    <t>MEDICINA GENERAL</t>
-  </si>
-  <si>
-    <t>PEDIATRÍA</t>
-  </si>
-  <si>
-    <t>MEDICINA INTERNA</t>
-  </si>
-  <si>
-    <t>DERMATOLOGÍA</t>
-  </si>
-  <si>
-    <t>PROCEDIMIENTOS DERMATOLOGICOS</t>
-  </si>
-  <si>
-    <t>GERIATRÍA</t>
-  </si>
-  <si>
-    <t>CARDIOLOGÍA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENDOCRINOLOGÍA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FISIATRÍA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GINECOLOGÍA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECOCARDIOGRAMA </t>
-  </si>
-  <si>
-    <t>ECOGRAFÍA</t>
-  </si>
-  <si>
-    <t>NUTRICIÓN</t>
-  </si>
-  <si>
-    <t>PSICOLOGÍA</t>
-  </si>
-  <si>
-    <t>TRABAJO SOCIAL</t>
-  </si>
-  <si>
-    <t>TERAPIA FÍSICA</t>
-  </si>
-  <si>
-    <t>TERAPIA OCUPACIONAL</t>
-  </si>
-  <si>
-    <t>FONOAUDIOLOGÍA</t>
-  </si>
-  <si>
-    <t>TERAPIA RESPIRATORIA</t>
-  </si>
-  <si>
-    <t>San Martin</t>
+    <t>TERAPIA DE LENGUAJE</t>
   </si>
 </sst>
 </file>
@@ -264,8 +207,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4EB043F7-73AA-4204-82B3-9452EAF3FC9D}" name="Tabla2" displayName="Tabla2" ref="A1:D27" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A1:D27" xr:uid="{4EB043F7-73AA-4204-82B3-9452EAF3FC9D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4EB043F7-73AA-4204-82B3-9452EAF3FC9D}" name="Tabla2" displayName="Tabla2" ref="A1:D5" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:D5" xr:uid="{4EB043F7-73AA-4204-82B3-9452EAF3FC9D}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{97C6BDF9-67D2-4EF7-A093-17EE8919158D}" name="Sede"/>
     <tableColumn id="2" xr3:uid="{AEBA6ACF-1126-417E-9C76-C72E8AAEAE7D}" name="Servicio"/>
@@ -573,13 +516,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC2D88A-CC9F-4EB7-98D7-86D94DC56E4E}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" customWidth="1"/>
@@ -609,10 +552,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="D2">
-        <v>624</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -620,13 +563,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>44986</v>
+        <v>44927</v>
       </c>
       <c r="D3">
-        <v>360</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -634,13 +577,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="D4">
-        <v>352</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -648,315 +591,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
         <v>44986</v>
       </c>
       <c r="D5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1">
-        <v>44986</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1">
-        <v>44986</v>
-      </c>
-      <c r="D7">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1">
-        <v>44986</v>
-      </c>
-      <c r="D8">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1">
-        <v>44986</v>
-      </c>
-      <c r="D9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1">
-        <v>44986</v>
-      </c>
-      <c r="D10">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1">
-        <v>44986</v>
-      </c>
-      <c r="D11">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="1">
-        <v>44986</v>
-      </c>
-      <c r="D12">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="1">
-        <v>44986</v>
-      </c>
-      <c r="D13">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="1">
-        <v>44986</v>
-      </c>
-      <c r="D14">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="1">
-        <v>44986</v>
-      </c>
-      <c r="D15">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="1">
-        <v>44986</v>
-      </c>
-      <c r="D16">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="1">
-        <v>44986</v>
-      </c>
-      <c r="D17">
-        <v>2476</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="1">
-        <v>44986</v>
-      </c>
-      <c r="D18">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="1">
-        <v>44986</v>
-      </c>
-      <c r="D19">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="1">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="1">
-        <v>44986</v>
-      </c>
-      <c r="D21">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1">
-        <v>44986</v>
-      </c>
-      <c r="D22">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="1">
-        <v>44986</v>
-      </c>
-      <c r="D23">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="1">
-        <v>44986</v>
-      </c>
-      <c r="D24">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="1">
-        <v>44986</v>
-      </c>
-      <c r="D25">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="1">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="1">
-        <v>44986</v>
-      </c>
-      <c r="D27">
-        <v>20</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -1148,13 +789,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B29F15C-DAF8-446B-8489-03AB44636364}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BACF7F81-81BA-4DC4-9A5D-470185EAD7BD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22D10FE5-232E-45EE-8487-F250C079E14B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7853187C-4B82-427F-B253-4836C2CF3F93}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F32A65F-FDF3-4C93-A4C8-082E32C0BD34}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04DF7E5A-7AC0-48CD-9463-2332149412EB}"/>
 </file>
--- a/dags/files_pami/Instalada.xlsx
+++ b/dags/files_pami/Instalada.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clinicos\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773DE454-3ACC-498F-BC38-B93CB4FD06A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA031C7C-5E14-48AE-86C1-05F71663D565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3655D678-912F-4640-A6FF-27DCF24D6CD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="14">
   <si>
     <t>Sede</t>
   </si>
@@ -50,10 +50,34 @@
     <t>Capacidad instalada</t>
   </si>
   <si>
-    <t>Bulevar</t>
-  </si>
-  <si>
-    <t>TERAPIA DE LENGUAJE</t>
+    <t>MEDICINA GENERAL</t>
+  </si>
+  <si>
+    <t>MEDICINA INTERNA</t>
+  </si>
+  <si>
+    <t>GERIATRÍA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FISIATRÍA </t>
+  </si>
+  <si>
+    <t>TERAPIA FÍSICA</t>
+  </si>
+  <si>
+    <t>Cartagena</t>
+  </si>
+  <si>
+    <t>TERAPIA FÍSICA 1RA VEZ</t>
+  </si>
+  <si>
+    <t>NEUROLOGÍA</t>
+  </si>
+  <si>
+    <t>REUMATOLOGÍA</t>
+  </si>
+  <si>
+    <t>PSIQUIATRÍA INFANTIL</t>
   </si>
 </sst>
 </file>
@@ -207,8 +231,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4EB043F7-73AA-4204-82B3-9452EAF3FC9D}" name="Tabla2" displayName="Tabla2" ref="A1:D5" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A1:D5" xr:uid="{4EB043F7-73AA-4204-82B3-9452EAF3FC9D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4EB043F7-73AA-4204-82B3-9452EAF3FC9D}" name="Tabla2" displayName="Tabla2" ref="A1:D37" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:D37" xr:uid="{4EB043F7-73AA-4204-82B3-9452EAF3FC9D}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{97C6BDF9-67D2-4EF7-A093-17EE8919158D}" name="Sede"/>
     <tableColumn id="2" xr3:uid="{AEBA6ACF-1126-417E-9C76-C72E8AAEAE7D}" name="Servicio"/>
@@ -516,13 +540,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC2D88A-CC9F-4EB7-98D7-86D94DC56E4E}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" customWidth="1"/>
@@ -546,58 +570,506 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" s="1">
-        <v>45017</v>
+        <v>44927</v>
       </c>
       <c r="D2">
-        <v>324</v>
+        <v>552</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" s="1">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="D3">
-        <v>324</v>
+        <v>576</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" s="1">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="D4">
-        <v>324</v>
+        <v>624</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="1">
+        <v>45017</v>
+      </c>
+      <c r="D5">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44927</v>
+      </c>
+      <c r="D6">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>44927</v>
+      </c>
+      <c r="D7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>44958</v>
+      </c>
+      <c r="D8">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>44958</v>
+      </c>
+      <c r="D9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>44986</v>
+      </c>
+      <c r="D10">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>44986</v>
+      </c>
+      <c r="D11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45017</v>
+      </c>
+      <c r="D12">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45017</v>
+      </c>
+      <c r="D13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C14" s="1">
+        <v>44927</v>
+      </c>
+      <c r="D14">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1">
+        <v>44927</v>
+      </c>
+      <c r="D15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1">
+        <v>44927</v>
+      </c>
+      <c r="D16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1">
+        <v>44927</v>
+      </c>
+      <c r="D17">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1">
+        <v>44927</v>
+      </c>
+      <c r="D18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1">
+        <v>44927</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1">
+        <v>44958</v>
+      </c>
+      <c r="D20">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1">
+        <v>44958</v>
+      </c>
+      <c r="D21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1">
+        <v>44958</v>
+      </c>
+      <c r="D22">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1">
+        <v>44958</v>
+      </c>
+      <c r="D23">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1">
+        <v>44958</v>
+      </c>
+      <c r="D24">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="1">
+        <v>44958</v>
+      </c>
+      <c r="D25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1">
         <v>44986</v>
       </c>
-      <c r="D5">
-        <v>324</v>
+      <c r="D26">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="1">
+        <v>44986</v>
+      </c>
+      <c r="D27">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1">
+        <v>44986</v>
+      </c>
+      <c r="D28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1">
+        <v>44986</v>
+      </c>
+      <c r="D29">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1">
+        <v>44986</v>
+      </c>
+      <c r="D30">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="1">
+        <v>44986</v>
+      </c>
+      <c r="D31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1">
+        <v>45017</v>
+      </c>
+      <c r="D32">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="1">
+        <v>45017</v>
+      </c>
+      <c r="D33">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1">
+        <v>45017</v>
+      </c>
+      <c r="D34">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="1">
+        <v>45017</v>
+      </c>
+      <c r="D35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="1">
+        <v>45017</v>
+      </c>
+      <c r="D36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="1">
+        <v>45017</v>
+      </c>
+      <c r="D37">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -782,20 +1254,10 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BACF7F81-81BA-4DC4-9A5D-470185EAD7BD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB51567E-206B-4E91-9DBE-B68FE6ED424E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7853187C-4B82-427F-B253-4836C2CF3F93}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04DF7E5A-7AC0-48CD-9463-2332149412EB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8A872A7-EB8E-4F95-A923-C548D1E63B92}"/>
 </file>
--- a/dags/files_pami/Instalada.xlsx
+++ b/dags/files_pami/Instalada.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clinicos\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clinicossasips-my.sharepoint.com/personal/maristizabal_clinicos_com_co/Documents/GESTIÓN DE TABLEROS/ACTUALIZACION PAMI Y CARTAGENA/INSTALADA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA031C7C-5E14-48AE-86C1-05F71663D565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="171" documentId="8_{31ADE914-9DE5-4511-AB20-152EDF16DC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1BC301D-8309-441C-9FEB-F750B560374D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3655D678-912F-4640-A6FF-27DCF24D6CD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="32">
   <si>
     <t>Sede</t>
   </si>
@@ -50,25 +50,79 @@
     <t>Capacidad instalada</t>
   </si>
   <si>
+    <t>Bulevar</t>
+  </si>
+  <si>
     <t>MEDICINA GENERAL</t>
   </si>
   <si>
+    <t>PEDIATRÍA</t>
+  </si>
+  <si>
     <t>MEDICINA INTERNA</t>
   </si>
   <si>
+    <t>DERMATOLOGÍA</t>
+  </si>
+  <si>
     <t>GERIATRÍA</t>
   </si>
   <si>
+    <t>CARDIOLOGÍA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENDOCRINOLOGÍA </t>
+  </si>
+  <si>
     <t xml:space="preserve">FISIATRÍA </t>
   </si>
   <si>
+    <t xml:space="preserve">GINECOLOGÍA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECOCARDIOGRAMA </t>
+  </si>
+  <si>
+    <t>ECOGRAFÍA</t>
+  </si>
+  <si>
+    <t>NUTRICIÓN</t>
+  </si>
+  <si>
+    <t>PSICOLOGÍA</t>
+  </si>
+  <si>
+    <t>TRABAJO SOCIAL</t>
+  </si>
+  <si>
     <t>TERAPIA FÍSICA</t>
   </si>
   <si>
+    <t>TERAPIA OCUPACIONAL</t>
+  </si>
+  <si>
+    <t>TERAPIA RESPIRATORIA</t>
+  </si>
+  <si>
+    <t>San Martin</t>
+  </si>
+  <si>
+    <t>PSIQUIATRÍA</t>
+  </si>
+  <si>
     <t>Cartagena</t>
   </si>
   <si>
+    <t>TERAPIA DE LENGUAJE</t>
+  </si>
+  <si>
     <t>TERAPIA FÍSICA 1RA VEZ</t>
+  </si>
+  <si>
+    <t>PROCEDIMIENTOS DERMATOLÓGICOS</t>
+  </si>
+  <si>
+    <t>MEDICINA DEL DEPORTE</t>
   </si>
   <si>
     <t>NEUROLOGÍA</t>
@@ -231,8 +285,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4EB043F7-73AA-4204-82B3-9452EAF3FC9D}" name="Tabla2" displayName="Tabla2" ref="A1:D37" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A1:D37" xr:uid="{4EB043F7-73AA-4204-82B3-9452EAF3FC9D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4EB043F7-73AA-4204-82B3-9452EAF3FC9D}" name="Tabla2" displayName="Tabla2" ref="A1:D41" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:D41" xr:uid="{4EB043F7-73AA-4204-82B3-9452EAF3FC9D}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{97C6BDF9-67D2-4EF7-A093-17EE8919158D}" name="Sede"/>
     <tableColumn id="2" xr3:uid="{AEBA6ACF-1126-417E-9C76-C72E8AAEAE7D}" name="Servicio"/>
@@ -540,13 +594,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC2D88A-CC9F-4EB7-98D7-86D94DC56E4E}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" customWidth="1"/>
@@ -570,13 +624,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>44927</v>
+        <v>45047</v>
       </c>
       <c r="D2">
         <v>552</v>
@@ -584,97 +638,97 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>44958</v>
+        <v>45047</v>
       </c>
       <c r="D3">
-        <v>576</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
-        <v>44986</v>
+        <v>45047</v>
       </c>
       <c r="D4">
-        <v>624</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="D5">
-        <v>492</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1">
-        <v>44927</v>
+        <v>45047</v>
       </c>
       <c r="D6">
-        <v>572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
       <c r="C7" s="1">
-        <v>44927</v>
+        <v>45047</v>
       </c>
       <c r="D7">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1">
-        <v>44958</v>
+        <v>45047</v>
       </c>
       <c r="D8">
-        <v>572</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1">
-        <v>44958</v>
+        <v>45047</v>
       </c>
       <c r="D9">
         <v>60</v>
@@ -682,394 +736,447 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1">
-        <v>44986</v>
+        <v>45047</v>
       </c>
       <c r="D10">
-        <v>572</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1">
-        <v>44986</v>
+        <v>45047</v>
       </c>
       <c r="D11">
-        <v>60</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="D12">
-        <v>572</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="D13">
-        <v>60</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1">
-        <v>44927</v>
+        <v>45047</v>
       </c>
       <c r="D14">
-        <v>84</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1">
-        <v>44927</v>
+        <v>45047</v>
       </c>
       <c r="D15">
-        <v>40</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1">
-        <v>44927</v>
+        <v>45047</v>
       </c>
       <c r="D16">
-        <v>24</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1">
-        <v>44927</v>
+        <v>45047</v>
       </c>
       <c r="D17">
-        <v>44</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1">
-        <v>44927</v>
+        <v>45047</v>
       </c>
       <c r="D18">
-        <v>60</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1">
-        <v>44927</v>
+        <v>45047</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1">
-        <v>44958</v>
+        <v>45047</v>
       </c>
       <c r="D20">
-        <v>84</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1">
-        <v>44958</v>
+        <v>45047</v>
       </c>
       <c r="D21">
-        <v>40</v>
+        <v>368</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1">
-        <v>44958</v>
+        <v>45047</v>
       </c>
       <c r="D22">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C23" s="1">
-        <v>44958</v>
+        <v>45047</v>
       </c>
       <c r="D23">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C24" s="1">
-        <v>44958</v>
+        <v>45047</v>
       </c>
       <c r="D24">
-        <v>60</v>
+        <v>552</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C25" s="1">
-        <v>44958</v>
+        <v>45047</v>
       </c>
       <c r="D25">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C26" s="1">
-        <v>44986</v>
+        <v>45047</v>
       </c>
       <c r="D26">
-        <v>84</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C27" s="1">
-        <v>44986</v>
+        <v>45047</v>
       </c>
       <c r="D27">
-        <v>40</v>
+        <v>360</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C28" s="1">
-        <v>44986</v>
+        <v>45047</v>
       </c>
       <c r="D28">
-        <v>24</v>
+        <v>420</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C29" s="1">
-        <v>44986</v>
-      </c>
-      <c r="D29">
-        <v>44</v>
+        <v>45047</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C30" s="1">
-        <v>44986</v>
+        <v>45047</v>
       </c>
       <c r="D30">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" s="1">
-        <v>44986</v>
+        <v>45047</v>
       </c>
       <c r="D31">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C32" s="1">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="D32">
-        <v>84</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C33" s="1">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="D33">
-        <v>40</v>
+        <v>552</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C34" s="1">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="D34">
-        <v>24</v>
+        <v>572</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C35" s="1">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="D35">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C36" s="1">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="D36">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="1">
+        <v>45047</v>
+      </c>
+      <c r="D37">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" t="s">
         <v>9</v>
       </c>
-      <c r="B37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="1">
-        <v>45017</v>
-      </c>
-      <c r="D37">
-        <v>13</v>
+      <c r="C38" s="1">
+        <v>45047</v>
+      </c>
+      <c r="D38">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="1">
+        <v>45047</v>
+      </c>
+      <c r="D39">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="1">
+        <v>45047</v>
+      </c>
+      <c r="D40">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="1">
+        <v>45047</v>
+      </c>
+      <c r="D41">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1255,9 +1362,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB51567E-206B-4E91-9DBE-B68FE6ED424E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E2132D8-9CE4-424B-B87B-A96DE761B774}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8A872A7-EB8E-4F95-A923-C548D1E63B92}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C60340A8-39B4-4398-B0C3-E2792CBB875F}"/>
 </file>
--- a/dags/files_pami/Instalada.xlsx
+++ b/dags/files_pami/Instalada.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clinicossasips-my.sharepoint.com/personal/maristizabal_clinicos_com_co/Documents/GESTIÓN DE TABLEROS/ACTUALIZACION PAMI Y CARTAGENA/INSTALADA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="171" documentId="8_{31ADE914-9DE5-4511-AB20-152EDF16DC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1BC301D-8309-441C-9FEB-F750B560374D}"/>
+  <xr:revisionPtr revIDLastSave="245" documentId="8_{31ADE914-9DE5-4511-AB20-152EDF16DC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C1BD4ED-AF65-4F14-ACAF-A0CEC06FDC88}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3655D678-912F-4640-A6FF-27DCF24D6CD0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="32">
   <si>
     <t>Sede</t>
   </si>
@@ -95,9 +95,6 @@
     <t>TRABAJO SOCIAL</t>
   </si>
   <si>
-    <t>TERAPIA FÍSICA</t>
-  </si>
-  <si>
     <t>TERAPIA OCUPACIONAL</t>
   </si>
   <si>
@@ -132,6 +129,9 @@
   </si>
   <si>
     <t>PSIQUIATRÍA INFANTIL</t>
+  </si>
+  <si>
+    <t>TERAPIA FÍSICA SESIONES</t>
   </si>
 </sst>
 </file>
@@ -285,8 +285,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4EB043F7-73AA-4204-82B3-9452EAF3FC9D}" name="Tabla2" displayName="Tabla2" ref="A1:D41" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A1:D41" xr:uid="{4EB043F7-73AA-4204-82B3-9452EAF3FC9D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4EB043F7-73AA-4204-82B3-9452EAF3FC9D}" name="Tabla2" displayName="Tabla2" ref="A1:D57" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:D57" xr:uid="{4EB043F7-73AA-4204-82B3-9452EAF3FC9D}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{97C6BDF9-67D2-4EF7-A093-17EE8919158D}" name="Sede"/>
     <tableColumn id="2" xr3:uid="{AEBA6ACF-1126-417E-9C76-C72E8AAEAE7D}" name="Servicio"/>
@@ -594,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC2D88A-CC9F-4EB7-98D7-86D94DC56E4E}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,10 +630,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="D2">
-        <v>552</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -644,10 +644,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="D3">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -658,10 +658,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="D4">
-        <v>346</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -672,7 +672,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="D5">
         <v>225</v>
@@ -683,10 +683,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -700,10 +700,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -714,7 +714,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="D8">
         <v>180</v>
@@ -728,10 +728,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="D9">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -742,10 +742,10 @@
         <v>12</v>
       </c>
       <c r="C10" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="D10">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -756,10 +756,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="D11">
-        <v>228</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -770,7 +770,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="D12">
         <v>151</v>
@@ -784,7 +784,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="D13">
         <v>300</v>
@@ -798,10 +798,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="D14">
-        <v>360</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -812,10 +812,10 @@
         <v>17</v>
       </c>
       <c r="C15" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="D15">
-        <v>360</v>
+        <v>344</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -826,10 +826,10 @@
         <v>18</v>
       </c>
       <c r="C16" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="D16">
-        <v>173</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -837,13 +837,13 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="D17">
-        <v>2377</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -851,13 +851,13 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="D18">
-        <v>207</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -865,13 +865,13 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="D19">
-        <v>368</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -879,13 +879,13 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="D20">
-        <v>291</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -893,13 +893,13 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="D21">
-        <v>368</v>
+        <v>344</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -907,10 +907,10 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="D22">
         <v>40</v>
@@ -921,105 +921,105 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="D23">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="D24">
-        <v>552</v>
+        <v>528</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="D25">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="D26">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="D27">
-        <v>360</v>
+        <v>344</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="D28">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C29" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C30" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="D30">
         <v>344</v>
@@ -1027,13 +1027,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="D31">
         <v>24</v>
@@ -1041,13 +1041,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" t="s">
         <v>22</v>
       </c>
-      <c r="B32" t="s">
-        <v>23</v>
-      </c>
       <c r="C32" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="D32">
         <v>14</v>
@@ -1055,41 +1055,41 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="D33">
-        <v>552</v>
+        <v>528</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C34" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="D34">
-        <v>572</v>
+        <v>512</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="D35">
         <v>60</v>
@@ -1097,13 +1097,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="D36">
         <v>84</v>
@@ -1111,13 +1111,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C37" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="D37">
         <v>60</v>
@@ -1125,13 +1125,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="D38">
         <v>24</v>
@@ -1139,13 +1139,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B39" t="s">
         <v>12</v>
       </c>
       <c r="C39" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="D39">
         <v>44</v>
@@ -1153,13 +1153,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C40" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="D40">
         <v>60</v>
@@ -1167,16 +1167,240 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C41" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="D41">
         <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="1">
+        <v>44927</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="1">
+        <v>44958</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="1">
+        <v>44986</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="1">
+        <v>45017</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="1">
+        <v>44927</v>
+      </c>
+      <c r="D46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="1">
+        <v>44958</v>
+      </c>
+      <c r="D47">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="1">
+        <v>44986</v>
+      </c>
+      <c r="D48">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="1">
+        <v>45017</v>
+      </c>
+      <c r="D49">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="1">
+        <v>44927</v>
+      </c>
+      <c r="D50">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="1">
+        <v>44927</v>
+      </c>
+      <c r="D51">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="1">
+        <v>44958</v>
+      </c>
+      <c r="D52">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="1">
+        <v>44958</v>
+      </c>
+      <c r="D53">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="1">
+        <v>44986</v>
+      </c>
+      <c r="D54">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="1">
+        <v>44986</v>
+      </c>
+      <c r="D55">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="1">
+        <v>45017</v>
+      </c>
+      <c r="D56">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="1">
+        <v>45017</v>
+      </c>
+      <c r="D57">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -1362,9 +1586,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E2132D8-9CE4-424B-B87B-A96DE761B774}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{877A8126-E663-4A65-9C51-8F1AA9F514C5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C60340A8-39B4-4398-B0C3-E2792CBB875F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C766E7C9-3EC5-4182-8ECB-49EF86C5AAA2}"/>
 </file>
--- a/dags/files_pami/Instalada.xlsx
+++ b/dags/files_pami/Instalada.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clinicossasips-my.sharepoint.com/personal/maristizabal_clinicos_com_co/Documents/GESTIÓN DE TABLEROS/ACTUALIZACION PAMI Y CARTAGENA/INSTALADA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="245" documentId="8_{31ADE914-9DE5-4511-AB20-152EDF16DC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C1BD4ED-AF65-4F14-ACAF-A0CEC06FDC88}"/>
+  <xr:revisionPtr revIDLastSave="302" documentId="8_{31ADE914-9DE5-4511-AB20-152EDF16DC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{295DE499-903D-4DD7-B0A6-098FE05AC009}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3655D678-912F-4640-A6FF-27DCF24D6CD0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="32">
   <si>
     <t>Sede</t>
   </si>
@@ -285,8 +285,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4EB043F7-73AA-4204-82B3-9452EAF3FC9D}" name="Tabla2" displayName="Tabla2" ref="A1:D57" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A1:D57" xr:uid="{4EB043F7-73AA-4204-82B3-9452EAF3FC9D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4EB043F7-73AA-4204-82B3-9452EAF3FC9D}" name="Tabla2" displayName="Tabla2" ref="A1:D41" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:D41" xr:uid="{4EB043F7-73AA-4204-82B3-9452EAF3FC9D}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{97C6BDF9-67D2-4EF7-A093-17EE8919158D}" name="Sede"/>
     <tableColumn id="2" xr3:uid="{AEBA6ACF-1126-417E-9C76-C72E8AAEAE7D}" name="Servicio"/>
@@ -594,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC2D88A-CC9F-4EB7-98D7-86D94DC56E4E}">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,10 +630,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="D2">
-        <v>528</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -644,7 +644,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="D3">
         <v>288</v>
@@ -658,10 +658,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="1">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="D4">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -672,7 +672,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="1">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="D5">
         <v>225</v>
@@ -686,7 +686,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="1">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="1">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="D7">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="1">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="D8">
         <v>180</v>
@@ -728,10 +728,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="1">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="D9">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -742,10 +742,10 @@
         <v>12</v>
       </c>
       <c r="C10" s="1">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="D10">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -756,10 +756,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="1">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="D11">
-        <v>204</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -770,7 +770,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="1">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="D12">
         <v>151</v>
@@ -784,7 +784,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="1">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="D13">
         <v>300</v>
@@ -798,10 +798,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="1">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="D14">
-        <v>344</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -812,10 +812,10 @@
         <v>17</v>
       </c>
       <c r="C15" s="1">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="D15">
-        <v>344</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -826,10 +826,10 @@
         <v>18</v>
       </c>
       <c r="C16" s="1">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="D16">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -840,10 +840,10 @@
         <v>31</v>
       </c>
       <c r="C17" s="1">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="D17">
-        <v>1721</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -854,10 +854,10 @@
         <v>25</v>
       </c>
       <c r="C18" s="1">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="D18">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -868,7 +868,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="1">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="D19">
         <v>344</v>
@@ -882,10 +882,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="1">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="D20">
-        <v>24</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -896,7 +896,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="1">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="D21">
         <v>344</v>
@@ -910,7 +910,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="1">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="D22">
         <v>40</v>
@@ -924,10 +924,10 @@
         <v>27</v>
       </c>
       <c r="C23" s="1">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="D23">
-        <v>76</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -938,10 +938,10 @@
         <v>5</v>
       </c>
       <c r="C24" s="1">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="D24">
-        <v>528</v>
+        <v>516</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -952,10 +952,10 @@
         <v>7</v>
       </c>
       <c r="C25" s="1">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="D25">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -966,10 +966,10 @@
         <v>13</v>
       </c>
       <c r="C26" s="1">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="D26">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -980,10 +980,10 @@
         <v>16</v>
       </c>
       <c r="C27" s="1">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="D27">
-        <v>344</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -994,10 +994,10 @@
         <v>17</v>
       </c>
       <c r="C28" s="1">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="D28">
-        <v>424</v>
+        <v>369</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1008,7 +1008,10 @@
         <v>20</v>
       </c>
       <c r="C29" s="1">
-        <v>45078</v>
+        <v>45108</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1019,10 +1022,10 @@
         <v>31</v>
       </c>
       <c r="C30" s="1">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="D30">
-        <v>344</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1033,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="C31" s="1">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="D31">
         <v>24</v>
@@ -1047,10 +1050,10 @@
         <v>22</v>
       </c>
       <c r="C32" s="1">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="D32">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1061,10 +1064,10 @@
         <v>5</v>
       </c>
       <c r="C33" s="1">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="D33">
-        <v>528</v>
+        <v>516</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1075,7 +1078,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="1">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="D34">
         <v>512</v>
@@ -1089,7 +1092,7 @@
         <v>25</v>
       </c>
       <c r="C35" s="1">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="D35">
         <v>60</v>
@@ -1103,7 +1106,7 @@
         <v>7</v>
       </c>
       <c r="C36" s="1">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="D36">
         <v>84</v>
@@ -1117,7 +1120,7 @@
         <v>28</v>
       </c>
       <c r="C37" s="1">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="D37">
         <v>60</v>
@@ -1131,7 +1134,7 @@
         <v>9</v>
       </c>
       <c r="C38" s="1">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="D38">
         <v>24</v>
@@ -1145,7 +1148,7 @@
         <v>12</v>
       </c>
       <c r="C39" s="1">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="D39">
         <v>44</v>
@@ -1159,7 +1162,7 @@
         <v>29</v>
       </c>
       <c r="C40" s="1">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="D40">
         <v>60</v>
@@ -1173,234 +1176,10 @@
         <v>30</v>
       </c>
       <c r="C41" s="1">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="D41">
         <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" t="s">
-        <v>26</v>
-      </c>
-      <c r="C42" s="1">
-        <v>44927</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" s="1">
-        <v>44958</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C44" s="1">
-        <v>44986</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" s="1">
-        <v>45017</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" s="1">
-        <v>44927</v>
-      </c>
-      <c r="D46">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C47" s="1">
-        <v>44958</v>
-      </c>
-      <c r="D47">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" s="1">
-        <v>44986</v>
-      </c>
-      <c r="D48">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" t="s">
-        <v>27</v>
-      </c>
-      <c r="C49" s="1">
-        <v>45017</v>
-      </c>
-      <c r="D49">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" s="1">
-        <v>44927</v>
-      </c>
-      <c r="D50">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="1">
-        <v>44927</v>
-      </c>
-      <c r="D51">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="1">
-        <v>44958</v>
-      </c>
-      <c r="D52">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" s="1">
-        <v>44958</v>
-      </c>
-      <c r="D53">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" s="1">
-        <v>44986</v>
-      </c>
-      <c r="D54">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55" s="1">
-        <v>44986</v>
-      </c>
-      <c r="D55">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" s="1">
-        <v>45017</v>
-      </c>
-      <c r="D56">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" s="1">
-        <v>45017</v>
-      </c>
-      <c r="D57">
-        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -1412,8 +1191,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E8AAD53D957193499A95B0822EE92604" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="33b02bf87a1dd6f4b3a4b5e0f725ed7a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b848449e-c9d3-4969-a575-ff0d96471e4b" xmlns:ns3="ac8deb47-86bc-4260-8fcd-a6158e6e95f4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f6d66165c6d3d4cf8e0bc57ff34d5fa9" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E8AAD53D957193499A95B0822EE92604" ma:contentTypeVersion="5" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="64521337f70ab7452aeeac0760611e10">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b848449e-c9d3-4969-a575-ff0d96471e4b" xmlns:ns3="ac8deb47-86bc-4260-8fcd-a6158e6e95f4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bab967c49d094239a50a0e5887e9ad5e" ns2:_="" ns3:_="">
     <xsd:import namespace="b848449e-c9d3-4969-a575-ff0d96471e4b"/>
     <xsd:import namespace="ac8deb47-86bc-4260-8fcd-a6158e6e95f4"/>
     <xsd:element name="properties">
@@ -1426,6 +1205,7 @@
                 <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1474,6 +1254,11 @@
     <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1586,9 +1371,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{877A8126-E663-4A65-9C51-8F1AA9F514C5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02C080E4-4A92-4583-93C5-A87FF940F702}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C766E7C9-3EC5-4182-8ECB-49EF86C5AAA2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6E75A56-E4D9-4A8A-97FA-EE13411B96B1}"/>
 </file>
--- a/dags/files_pami/Instalada.xlsx
+++ b/dags/files_pami/Instalada.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clinicossasips-my.sharepoint.com/personal/maristizabal_clinicos_com_co/Documents/GESTIÓN DE TABLEROS/ACTUALIZACION PAMI Y CARTAGENA/INSTALADA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clinicos\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="302" documentId="8_{31ADE914-9DE5-4511-AB20-152EDF16DC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{295DE499-903D-4DD7-B0A6-098FE05AC009}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392EDD39-D3BB-4353-A5AE-3A680DB403B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3655D678-912F-4640-A6FF-27DCF24D6CD0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="7">
   <si>
     <t>Sede</t>
   </si>
@@ -53,85 +53,10 @@
     <t>Bulevar</t>
   </si>
   <si>
-    <t>MEDICINA GENERAL</t>
-  </si>
-  <si>
-    <t>PEDIATRÍA</t>
-  </si>
-  <si>
-    <t>MEDICINA INTERNA</t>
-  </si>
-  <si>
-    <t>DERMATOLOGÍA</t>
-  </si>
-  <si>
-    <t>GERIATRÍA</t>
-  </si>
-  <si>
-    <t>CARDIOLOGÍA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENDOCRINOLOGÍA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FISIATRÍA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GINECOLOGÍA </t>
-  </si>
-  <si>
     <t xml:space="preserve">ECOCARDIOGRAMA </t>
   </si>
   <si>
     <t>ECOGRAFÍA</t>
-  </si>
-  <si>
-    <t>NUTRICIÓN</t>
-  </si>
-  <si>
-    <t>PSICOLOGÍA</t>
-  </si>
-  <si>
-    <t>TRABAJO SOCIAL</t>
-  </si>
-  <si>
-    <t>TERAPIA OCUPACIONAL</t>
-  </si>
-  <si>
-    <t>TERAPIA RESPIRATORIA</t>
-  </si>
-  <si>
-    <t>San Martin</t>
-  </si>
-  <si>
-    <t>PSIQUIATRÍA</t>
-  </si>
-  <si>
-    <t>Cartagena</t>
-  </si>
-  <si>
-    <t>TERAPIA DE LENGUAJE</t>
-  </si>
-  <si>
-    <t>TERAPIA FÍSICA 1RA VEZ</t>
-  </si>
-  <si>
-    <t>PROCEDIMIENTOS DERMATOLÓGICOS</t>
-  </si>
-  <si>
-    <t>MEDICINA DEL DEPORTE</t>
-  </si>
-  <si>
-    <t>NEUROLOGÍA</t>
-  </si>
-  <si>
-    <t>REUMATOLOGÍA</t>
-  </si>
-  <si>
-    <t>PSIQUIATRÍA INFANTIL</t>
-  </si>
-  <si>
-    <t>TERAPIA FÍSICA SESIONES</t>
   </si>
 </sst>
 </file>
@@ -285,8 +210,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4EB043F7-73AA-4204-82B3-9452EAF3FC9D}" name="Tabla2" displayName="Tabla2" ref="A1:D41" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A1:D41" xr:uid="{4EB043F7-73AA-4204-82B3-9452EAF3FC9D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4EB043F7-73AA-4204-82B3-9452EAF3FC9D}" name="Tabla2" displayName="Tabla2" ref="A1:D15" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:D15" xr:uid="{4EB043F7-73AA-4204-82B3-9452EAF3FC9D}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{97C6BDF9-67D2-4EF7-A093-17EE8919158D}" name="Sede"/>
     <tableColumn id="2" xr3:uid="{AEBA6ACF-1126-417E-9C76-C72E8AAEAE7D}" name="Servicio"/>
@@ -594,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC2D88A-CC9F-4EB7-98D7-86D94DC56E4E}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,7 +558,7 @@
         <v>45108</v>
       </c>
       <c r="D2">
-        <v>516</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -641,13 +566,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="D3">
-        <v>288</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -655,13 +580,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>45108</v>
+        <v>45047</v>
       </c>
       <c r="D4">
-        <v>360</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -669,13 +594,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>45108</v>
+        <v>45017</v>
       </c>
       <c r="D5">
-        <v>225</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -683,13 +608,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>45108</v>
+        <v>44986</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -697,13 +622,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>45108</v>
+        <v>44958</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -711,13 +636,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>45108</v>
+        <v>44927</v>
       </c>
       <c r="D8">
-        <v>180</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -725,13 +650,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1">
         <v>45108</v>
       </c>
       <c r="D9">
-        <v>80</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -739,13 +664,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="D10">
-        <v>72</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -753,13 +678,13 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1">
-        <v>45108</v>
+        <v>45047</v>
       </c>
       <c r="D11">
-        <v>216</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -767,13 +692,13 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1">
-        <v>45108</v>
+        <v>45017</v>
       </c>
       <c r="D12">
-        <v>151</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -781,10 +706,10 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1">
-        <v>45108</v>
+        <v>44986</v>
       </c>
       <c r="D13">
         <v>300</v>
@@ -795,13 +720,13 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1">
-        <v>45108</v>
+        <v>44958</v>
       </c>
       <c r="D14">
-        <v>328</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -809,377 +734,13 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1">
-        <v>45108</v>
+        <v>44927</v>
       </c>
       <c r="D15">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="1">
-        <v>45108</v>
-      </c>
-      <c r="D16">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="1">
-        <v>45108</v>
-      </c>
-      <c r="D17">
-        <v>2056</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="1">
-        <v>45108</v>
-      </c>
-      <c r="D18">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="1">
-        <v>45108</v>
-      </c>
-      <c r="D19">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="1">
-        <v>45108</v>
-      </c>
-      <c r="D20">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="1">
-        <v>45108</v>
-      </c>
-      <c r="D21">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="1">
-        <v>45108</v>
-      </c>
-      <c r="D22">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="1">
-        <v>45108</v>
-      </c>
-      <c r="D23">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="1">
-        <v>45108</v>
-      </c>
-      <c r="D24">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1">
-        <v>45108</v>
-      </c>
-      <c r="D25">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="1">
-        <v>45108</v>
-      </c>
-      <c r="D26">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="1">
-        <v>45108</v>
-      </c>
-      <c r="D27">
         <v>300</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="1">
-        <v>45108</v>
-      </c>
-      <c r="D28">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="1">
-        <v>45108</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="1">
-        <v>45108</v>
-      </c>
-      <c r="D30">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="1">
-        <v>45108</v>
-      </c>
-      <c r="D31">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="1">
-        <v>45108</v>
-      </c>
-      <c r="D32">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="1">
-        <v>45108</v>
-      </c>
-      <c r="D33">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="1">
-        <v>45108</v>
-      </c>
-      <c r="D34">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="1">
-        <v>45108</v>
-      </c>
-      <c r="D35">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="1">
-        <v>45108</v>
-      </c>
-      <c r="D36">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="1">
-        <v>45108</v>
-      </c>
-      <c r="D37">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="1">
-        <v>45108</v>
-      </c>
-      <c r="D38">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="1">
-        <v>45108</v>
-      </c>
-      <c r="D39">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="1">
-        <v>45108</v>
-      </c>
-      <c r="D40">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="1">
-        <v>45108</v>
-      </c>
-      <c r="D41">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1371,9 +932,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02C080E4-4A92-4583-93C5-A87FF940F702}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ED1D98A-FAD0-4836-9ABF-0F5D0769719F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6E75A56-E4D9-4A8A-97FA-EE13411B96B1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC25D276-6DB4-4C97-A8E5-7D22F5D0B78A}"/>
 </file>
--- a/dags/files_pami/Instalada.xlsx
+++ b/dags/files_pami/Instalada.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clinicos\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clinicossasips-my.sharepoint.com/personal/maristizabal_clinicos_com_co/Documents/GESTIÓN DE TABLEROS/ACTUALIZACION PAMI Y CARTAGENA/INSTALADA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392EDD39-D3BB-4353-A5AE-3A680DB403B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="326" documentId="8_{31ADE914-9DE5-4511-AB20-152EDF16DC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D09F8D5-57BD-4579-8DA8-EAEE35CA8CC0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3655D678-912F-4640-A6FF-27DCF24D6CD0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="32">
   <si>
     <t>Sede</t>
   </si>
@@ -53,10 +53,85 @@
     <t>Bulevar</t>
   </si>
   <si>
+    <t>MEDICINA GENERAL</t>
+  </si>
+  <si>
+    <t>PEDIATRÍA</t>
+  </si>
+  <si>
+    <t>MEDICINA INTERNA</t>
+  </si>
+  <si>
+    <t>DERMATOLOGÍA</t>
+  </si>
+  <si>
+    <t>GERIATRÍA</t>
+  </si>
+  <si>
+    <t>CARDIOLOGÍA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENDOCRINOLOGÍA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FISIATRÍA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GINECOLOGÍA </t>
+  </si>
+  <si>
     <t xml:space="preserve">ECOCARDIOGRAMA </t>
   </si>
   <si>
     <t>ECOGRAFÍA</t>
+  </si>
+  <si>
+    <t>NUTRICIÓN</t>
+  </si>
+  <si>
+    <t>PSICOLOGÍA</t>
+  </si>
+  <si>
+    <t>TRABAJO SOCIAL</t>
+  </si>
+  <si>
+    <t>TERAPIA OCUPACIONAL</t>
+  </si>
+  <si>
+    <t>TERAPIA RESPIRATORIA</t>
+  </si>
+  <si>
+    <t>San Martin</t>
+  </si>
+  <si>
+    <t>PSIQUIATRÍA</t>
+  </si>
+  <si>
+    <t>Cartagena</t>
+  </si>
+  <si>
+    <t>TERAPIA DE LENGUAJE</t>
+  </si>
+  <si>
+    <t>TERAPIA FÍSICA 1RA VEZ</t>
+  </si>
+  <si>
+    <t>PROCEDIMIENTOS DERMATOLÓGICOS</t>
+  </si>
+  <si>
+    <t>MEDICINA DEL DEPORTE</t>
+  </si>
+  <si>
+    <t>NEUROLOGÍA</t>
+  </si>
+  <si>
+    <t>REUMATOLOGÍA</t>
+  </si>
+  <si>
+    <t>PSIQUIATRÍA INFANTIL</t>
+  </si>
+  <si>
+    <t>TERAPIA FÍSICA SESIONES</t>
   </si>
 </sst>
 </file>
@@ -210,8 +285,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4EB043F7-73AA-4204-82B3-9452EAF3FC9D}" name="Tabla2" displayName="Tabla2" ref="A1:D15" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A1:D15" xr:uid="{4EB043F7-73AA-4204-82B3-9452EAF3FC9D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4EB043F7-73AA-4204-82B3-9452EAF3FC9D}" name="Tabla2" displayName="Tabla2" ref="A1:D41" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:D41" xr:uid="{4EB043F7-73AA-4204-82B3-9452EAF3FC9D}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{97C6BDF9-67D2-4EF7-A093-17EE8919158D}" name="Sede"/>
     <tableColumn id="2" xr3:uid="{AEBA6ACF-1126-417E-9C76-C72E8AAEAE7D}" name="Servicio"/>
@@ -519,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC2D88A-CC9F-4EB7-98D7-86D94DC56E4E}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,10 +630,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="D2">
-        <v>151</v>
+        <v>552</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -566,13 +641,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>45078</v>
+        <v>45139</v>
       </c>
       <c r="D3">
-        <v>151</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -580,13 +655,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
-        <v>45047</v>
+        <v>45139</v>
       </c>
       <c r="D4">
-        <v>151</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -594,13 +669,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
-        <v>45017</v>
+        <v>45139</v>
       </c>
       <c r="D5">
-        <v>151</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -608,13 +683,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1">
-        <v>44986</v>
+        <v>45139</v>
       </c>
       <c r="D6">
-        <v>151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -622,13 +697,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1">
-        <v>44958</v>
+        <v>45139</v>
       </c>
       <c r="D7">
-        <v>151</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -636,13 +711,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1">
-        <v>44927</v>
+        <v>45139</v>
       </c>
       <c r="D8">
-        <v>151</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -650,13 +725,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="D9">
-        <v>300</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -664,13 +739,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1">
-        <v>45078</v>
+        <v>45139</v>
       </c>
       <c r="D10">
-        <v>300</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -678,13 +753,13 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1">
-        <v>45047</v>
+        <v>45139</v>
       </c>
       <c r="D11">
-        <v>300</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -692,13 +767,13 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1">
-        <v>45017</v>
+        <v>45139</v>
       </c>
       <c r="D12">
-        <v>300</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -706,10 +781,10 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1">
-        <v>44986</v>
+        <v>45139</v>
       </c>
       <c r="D13">
         <v>300</v>
@@ -720,13 +795,13 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1">
-        <v>44958</v>
+        <v>45139</v>
       </c>
       <c r="D14">
-        <v>300</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -734,13 +809,377 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1">
-        <v>44927</v>
+        <v>45139</v>
       </c>
       <c r="D15">
-        <v>300</v>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45139</v>
+      </c>
+      <c r="D16">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45139</v>
+      </c>
+      <c r="D17">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1">
+        <v>45139</v>
+      </c>
+      <c r="D18">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45139</v>
+      </c>
+      <c r="D19">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1">
+        <v>45139</v>
+      </c>
+      <c r="D20">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="1">
+        <v>45139</v>
+      </c>
+      <c r="D21">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="1">
+        <v>45139</v>
+      </c>
+      <c r="D22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="1">
+        <v>45139</v>
+      </c>
+      <c r="D23">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1">
+        <v>45139</v>
+      </c>
+      <c r="D24">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1">
+        <v>45139</v>
+      </c>
+      <c r="D25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="1">
+        <v>45139</v>
+      </c>
+      <c r="D26">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="1">
+        <v>45139</v>
+      </c>
+      <c r="D27">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="1">
+        <v>45139</v>
+      </c>
+      <c r="D28">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="1">
+        <v>45139</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="1">
+        <v>45139</v>
+      </c>
+      <c r="D30">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1">
+        <v>45139</v>
+      </c>
+      <c r="D31">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="1">
+        <v>45139</v>
+      </c>
+      <c r="D32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1">
+        <v>45139</v>
+      </c>
+      <c r="D33">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="1">
+        <v>45139</v>
+      </c>
+      <c r="D34">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="1">
+        <v>45139</v>
+      </c>
+      <c r="D35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1">
+        <v>45139</v>
+      </c>
+      <c r="D36">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="1">
+        <v>45139</v>
+      </c>
+      <c r="D37">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="1">
+        <v>45139</v>
+      </c>
+      <c r="D38">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="1">
+        <v>45139</v>
+      </c>
+      <c r="D39">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="1">
+        <v>45139</v>
+      </c>
+      <c r="D40">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="1">
+        <v>45139</v>
+      </c>
+      <c r="D41">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -932,9 +1371,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ED1D98A-FAD0-4836-9ABF-0F5D0769719F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C27B4B8-8BDD-4060-836D-F7698EF4D6A0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC25D276-6DB4-4C97-A8E5-7D22F5D0B78A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1ED5699-8EDD-4EF9-B7A3-B7F942EAAB2C}"/>
 </file>
--- a/dags/files_pami/Instalada.xlsx
+++ b/dags/files_pami/Instalada.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clinicossasips-my.sharepoint.com/personal/maristizabal_clinicos_com_co/Documents/GESTIÓN DE TABLEROS/ACTUALIZACION PAMI Y CARTAGENA/INSTALADA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="326" documentId="8_{31ADE914-9DE5-4511-AB20-152EDF16DC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D09F8D5-57BD-4579-8DA8-EAEE35CA8CC0}"/>
+  <xr:revisionPtr revIDLastSave="352" documentId="8_{31ADE914-9DE5-4511-AB20-152EDF16DC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{247C1DD3-F326-4A7B-BFA4-2F9C22C61CD2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3655D678-912F-4640-A6FF-27DCF24D6CD0}"/>
   </bookViews>
@@ -630,10 +630,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D2">
-        <v>552</v>
+        <v>564</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -644,10 +644,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D3">
-        <v>300</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -658,7 +658,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D4">
         <v>360</v>
@@ -672,7 +672,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="1">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D5">
         <v>225</v>
@@ -686,7 +686,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="1">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="1">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D7">
         <v>30</v>
@@ -714,7 +714,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="1">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D8">
         <v>180</v>
@@ -728,7 +728,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="1">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D9">
         <v>80</v>
@@ -742,10 +742,10 @@
         <v>12</v>
       </c>
       <c r="C10" s="1">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D10">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -756,10 +756,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="1">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D11">
-        <v>192</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -770,7 +770,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="1">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D12">
         <v>151</v>
@@ -784,7 +784,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="1">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D13">
         <v>300</v>
@@ -798,10 +798,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="1">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D14">
-        <v>272</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -812,10 +812,10 @@
         <v>17</v>
       </c>
       <c r="C15" s="1">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D15">
-        <v>288</v>
+        <v>424</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -826,10 +826,10 @@
         <v>18</v>
       </c>
       <c r="C16" s="1">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D16">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -840,10 +840,10 @@
         <v>31</v>
       </c>
       <c r="C17" s="1">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D17">
-        <v>2053</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -854,10 +854,10 @@
         <v>25</v>
       </c>
       <c r="C18" s="1">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D18">
-        <v>215</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -868,10 +868,10 @@
         <v>19</v>
       </c>
       <c r="C19" s="1">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D19">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -882,10 +882,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="1">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D20">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -896,10 +896,10 @@
         <v>24</v>
       </c>
       <c r="C21" s="1">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D21">
-        <v>360</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -910,7 +910,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="1">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D22">
         <v>40</v>
@@ -924,10 +924,10 @@
         <v>27</v>
       </c>
       <c r="C23" s="1">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D23">
-        <v>104</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -938,10 +938,10 @@
         <v>5</v>
       </c>
       <c r="C24" s="1">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D24">
-        <v>552</v>
+        <v>564</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -952,7 +952,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="1">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D25">
         <v>70</v>
@@ -966,7 +966,7 @@
         <v>13</v>
       </c>
       <c r="C26" s="1">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D26">
         <v>60</v>
@@ -980,10 +980,10 @@
         <v>16</v>
       </c>
       <c r="C27" s="1">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D27">
-        <v>360</v>
+        <v>392</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -994,10 +994,10 @@
         <v>17</v>
       </c>
       <c r="C28" s="1">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D28">
-        <v>450</v>
+        <v>432</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1008,7 +1008,7 @@
         <v>20</v>
       </c>
       <c r="C29" s="1">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>31</v>
       </c>
       <c r="C30" s="1">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D30">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1036,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="C31" s="1">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D31">
         <v>24</v>
@@ -1050,10 +1050,10 @@
         <v>22</v>
       </c>
       <c r="C32" s="1">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D32">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1064,10 +1064,10 @@
         <v>5</v>
       </c>
       <c r="C33" s="1">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D33">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1078,7 +1078,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="1">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D34">
         <v>512</v>
@@ -1092,7 +1092,7 @@
         <v>25</v>
       </c>
       <c r="C35" s="1">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D35">
         <v>60</v>
@@ -1106,7 +1106,7 @@
         <v>7</v>
       </c>
       <c r="C36" s="1">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D36">
         <v>84</v>
@@ -1120,7 +1120,7 @@
         <v>28</v>
       </c>
       <c r="C37" s="1">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D37">
         <v>60</v>
@@ -1134,7 +1134,7 @@
         <v>9</v>
       </c>
       <c r="C38" s="1">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D38">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>12</v>
       </c>
       <c r="C39" s="1">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D39">
         <v>44</v>
@@ -1162,7 +1162,7 @@
         <v>29</v>
       </c>
       <c r="C40" s="1">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D40">
         <v>60</v>
@@ -1176,7 +1176,7 @@
         <v>30</v>
       </c>
       <c r="C41" s="1">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D41">
         <v>15</v>
@@ -1371,9 +1371,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C27B4B8-8BDD-4060-836D-F7698EF4D6A0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B848A45-5339-40E8-874A-E8DD50245DF1}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1ED5699-8EDD-4EF9-B7A3-B7F942EAAB2C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16F0F3D5-52A1-4688-8276-7CB1649EA34D}"/>
 </file>
--- a/dags/files_pami/Instalada.xlsx
+++ b/dags/files_pami/Instalada.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clinicossasips-my.sharepoint.com/personal/maristizabal_clinicos_com_co/Documents/GESTIÓN DE TABLEROS/ACTUALIZACION PAMI Y CARTAGENA/INSTALADA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="352" documentId="8_{31ADE914-9DE5-4511-AB20-152EDF16DC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{247C1DD3-F326-4A7B-BFA4-2F9C22C61CD2}"/>
+  <xr:revisionPtr revIDLastSave="374" documentId="8_{31ADE914-9DE5-4511-AB20-152EDF16DC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26563475-0659-44FE-9906-AC23CFFFDCB5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3655D678-912F-4640-A6FF-27DCF24D6CD0}"/>
   </bookViews>
@@ -630,10 +630,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="D2">
-        <v>564</v>
+        <v>552</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -644,10 +644,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="D3">
-        <v>312</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -658,10 +658,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="1">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="D4">
-        <v>360</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -672,7 +672,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="1">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="D5">
         <v>225</v>
@@ -686,7 +686,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="1">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="1">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="D7">
         <v>30</v>
@@ -714,7 +714,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="1">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="D8">
         <v>180</v>
@@ -728,7 +728,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="1">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="D9">
         <v>80</v>
@@ -742,10 +742,10 @@
         <v>12</v>
       </c>
       <c r="C10" s="1">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="D10">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -756,7 +756,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="1">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="D11">
         <v>240</v>
@@ -770,7 +770,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="1">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="D12">
         <v>151</v>
@@ -784,7 +784,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="1">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="D13">
         <v>300</v>
@@ -798,10 +798,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="1">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="D14">
-        <v>360</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -812,10 +812,10 @@
         <v>17</v>
       </c>
       <c r="C15" s="1">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="D15">
-        <v>424</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -826,7 +826,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="1">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="D16">
         <v>154</v>
@@ -840,10 +840,10 @@
         <v>31</v>
       </c>
       <c r="C17" s="1">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="D17">
-        <v>1742</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -854,10 +854,10 @@
         <v>25</v>
       </c>
       <c r="C18" s="1">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="D18">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -868,10 +868,10 @@
         <v>19</v>
       </c>
       <c r="C19" s="1">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="D19">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -882,10 +882,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="1">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="D20">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -896,10 +896,10 @@
         <v>24</v>
       </c>
       <c r="C21" s="1">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="D21">
-        <v>312</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -910,7 +910,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="1">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="D22">
         <v>40</v>
@@ -924,10 +924,10 @@
         <v>27</v>
       </c>
       <c r="C23" s="1">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="D23">
-        <v>86</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -938,10 +938,10 @@
         <v>5</v>
       </c>
       <c r="C24" s="1">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="D24">
-        <v>564</v>
+        <v>552</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -952,7 +952,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="1">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="D25">
         <v>70</v>
@@ -966,10 +966,10 @@
         <v>13</v>
       </c>
       <c r="C26" s="1">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="D26">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -980,10 +980,10 @@
         <v>16</v>
       </c>
       <c r="C27" s="1">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="D27">
-        <v>392</v>
+        <v>368</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -994,10 +994,10 @@
         <v>17</v>
       </c>
       <c r="C28" s="1">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="D28">
-        <v>432</v>
+        <v>460</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1008,7 +1008,7 @@
         <v>20</v>
       </c>
       <c r="C29" s="1">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>31</v>
       </c>
       <c r="C30" s="1">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="D30">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1036,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="C31" s="1">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="D31">
         <v>24</v>
@@ -1050,10 +1050,10 @@
         <v>22</v>
       </c>
       <c r="C32" s="1">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="D32">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1064,10 +1064,10 @@
         <v>5</v>
       </c>
       <c r="C33" s="1">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="D33">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1078,7 +1078,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="1">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="D34">
         <v>512</v>
@@ -1092,7 +1092,7 @@
         <v>25</v>
       </c>
       <c r="C35" s="1">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="D35">
         <v>60</v>
@@ -1106,7 +1106,7 @@
         <v>7</v>
       </c>
       <c r="C36" s="1">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="D36">
         <v>84</v>
@@ -1120,7 +1120,7 @@
         <v>28</v>
       </c>
       <c r="C37" s="1">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="D37">
         <v>60</v>
@@ -1134,7 +1134,7 @@
         <v>9</v>
       </c>
       <c r="C38" s="1">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="D38">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>12</v>
       </c>
       <c r="C39" s="1">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="D39">
         <v>44</v>
@@ -1162,7 +1162,7 @@
         <v>29</v>
       </c>
       <c r="C40" s="1">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="D40">
         <v>60</v>
@@ -1176,7 +1176,7 @@
         <v>30</v>
       </c>
       <c r="C41" s="1">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="D41">
         <v>15</v>
@@ -1371,9 +1371,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B848A45-5339-40E8-874A-E8DD50245DF1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CC72AC8-F774-489A-8BC3-C7BBE9865620}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16F0F3D5-52A1-4688-8276-7CB1649EA34D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DA6DEDD-1F94-435F-B013-F0D8A61AEFA2}"/>
 </file>